--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t># matched peaks</t>
   </si>
@@ -23,6 +23,24 @@
   </si>
   <si>
     <t># shifted peaks</t>
+  </si>
+  <si>
+    <t>usi1</t>
+  </si>
+  <si>
+    <t>mzspec:GNPS:TASK-e31d8bbfb26c4c3e8f159f06e37d65bb-spectra/specs_ms.mgf:scan:3189</t>
+  </si>
+  <si>
+    <t>usi2</t>
+  </si>
+  <si>
+    <t>mzspec:GNPS:TASK-e31d8bbfb26c4c3e8f159f06e37d65bb-spectra/specs_ms.mgf:scan:3399</t>
+  </si>
+  <si>
+    <t>structure1</t>
+  </si>
+  <si>
+    <t>OC(c1c(CCCCC)cc(OC(c2c(OC)cc(OC)cc2CCCCC)=O)cc1OC)=O</t>
   </si>
   <si>
     <t>image</t>
@@ -76,13 +94,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -102,7 +120,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="190500"/>
+          <a:off x="3657600" y="190500"/>
           <a:ext cx="2381250" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -400,13 +418,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +437,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>6</v>
       </c>
@@ -429,6 +456,15 @@
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -100,9 +100,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -121,7 +121,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3657600" y="190500"/>
-          <a:ext cx="2381250" cy="1905000"/>
+          <a:ext cx="11906250" cy="11430000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
